--- a/excel/AI Agents in Social Media Marketing.xlsx
+++ b/excel/AI Agents in Social Media Marketing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4D7CDB90-3F5A-44A7-B58C-3E4C9BADE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C9C658-E38C-4E9C-956C-A5D09C0A4BB0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{4D7CDB90-3F5A-44A7-B58C-3E4C9BADE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DCA9BA-3EF8-4897-B8E4-F062A3CF85B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{102A9922-08DE-4D93-840F-35B5763B4633}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Included with Marketing Hub Pro &amp; Enterprise ($900–$3,800/month)</t>
   </si>
   <si>
-    <t>(blog.hubspot.com)</t>
-  </si>
-  <si>
     <t>Heyday by Hootsuite</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Bronze $15/mo, Silver $39/mo, Gold $79/mo, Diamond $159/mo (reddit.com, ocoya.com)</t>
   </si>
   <si>
-    <t>ocoya.com</t>
-  </si>
-  <si>
     <t>Predis.ai</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Free plan; Lite $32/mo; Premium $59/mo; Agency $249/mo</t>
   </si>
   <si>
-    <t>predis.ai</t>
-  </si>
-  <si>
     <t>Lately.ai</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>Custom / enterprise pricing (not publicly listed)</t>
   </si>
   <si>
-    <t>lately.ai</t>
-  </si>
-  <si>
     <t>Instagram hashtag generator and analytics</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Freemium / Paid</t>
   </si>
   <si>
-    <t>copy.ai</t>
-  </si>
-  <si>
     <t>Jasper</t>
   </si>
   <si>
@@ -126,9 +111,6 @@
     <t>Paid (plans vary)</t>
   </si>
   <si>
-    <t>jasper.ai</t>
-  </si>
-  <si>
     <t>Pictory</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>Paid (usage-based)</t>
   </si>
   <si>
-    <t>pictory.ai</t>
-  </si>
-  <si>
     <t>Synthesia</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>Custom/Enterprise pricing</t>
   </si>
   <si>
-    <t>synthesia.io</t>
-  </si>
-  <si>
     <t>Publer</t>
   </si>
   <si>
@@ -162,36 +138,24 @@
     <t>Paid plans vary</t>
   </si>
   <si>
-    <t>publer.io</t>
-  </si>
-  <si>
     <t>AI-powered scheduler, analytics, idea generator</t>
   </si>
   <si>
     <t>Paid (custom pricing)</t>
   </si>
   <si>
-    <t>feedhive.io</t>
-  </si>
-  <si>
     <t>ContentStudio</t>
   </si>
   <si>
     <t>AI-driven content curation and automation</t>
   </si>
   <si>
-    <t>contentstudio.io</t>
-  </si>
-  <si>
     <t>Brand24</t>
   </si>
   <si>
     <t>Social listening and brand monitoring</t>
   </si>
   <si>
-    <t>brand24.com</t>
-  </si>
-  <si>
     <t>SocialBee</t>
   </si>
   <si>
@@ -201,18 +165,12 @@
     <t>Starts at $29/mo</t>
   </si>
   <si>
-    <t>socialbee.io</t>
-  </si>
-  <si>
     <t>AI chatbot for social DM and comment engagement</t>
   </si>
   <si>
     <t>Enterprise custom pricing</t>
   </si>
   <si>
-    <t>hootsuite.com/heyday</t>
-  </si>
-  <si>
     <t>Replai</t>
   </si>
   <si>
@@ -222,10 +180,52 @@
     <t>Paid (custom)</t>
   </si>
   <si>
-    <t>replai.io</t>
-  </si>
-  <si>
-    <t>Flick: Social Media Marketing Platform</t>
+    <t>https://blog.hubspot.com/marketing/ai-agents-for-social-media?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>https://www.ocoya.com/</t>
+  </si>
+  <si>
+    <t>https://www.predis.ai/</t>
+  </si>
+  <si>
+    <t>https://www.lately.ai/</t>
+  </si>
+  <si>
+    <t>https://www.flick.social/</t>
+  </si>
+  <si>
+    <t>https://www.copy.ai/</t>
+  </si>
+  <si>
+    <t>https://www.jasper.ai/</t>
+  </si>
+  <si>
+    <t>https://pictory.ai/?el=2000b&amp;htrafficsource=pictoryblog</t>
+  </si>
+  <si>
+    <t>https://www.synthesia.io/</t>
+  </si>
+  <si>
+    <t>https://publer.com/</t>
+  </si>
+  <si>
+    <t>https://www.feedhive.com/</t>
+  </si>
+  <si>
+    <t>https://www.contentstudio.io/</t>
+  </si>
+  <si>
+    <t>https://brand24.com/</t>
+  </si>
+  <si>
+    <t>https://socialbee.com/</t>
+  </si>
+  <si>
+    <t>https://hootsuite.com/heyday</t>
+  </si>
+  <si>
+    <t>https://www.replai.io/</t>
   </si>
 </sst>
 </file>
@@ -318,9 +318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -464,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F869D5F-2207-421A-B22F-3D43554BCECA}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -658,237 +658,237 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" tooltip="AI agents for social media: How to use them right now + what you can expect in the future" display="https://blog.hubspot.com/marketing/ai-agents-for-social-media?utm_source=chatgpt.com" xr:uid="{DB98CBD7-039E-408C-B1A5-81DBEBB1CDF3}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.ocoya.com/" xr:uid="{17E8A22E-98C8-464F-B9E1-3087F0128F2D}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.predis.ai/" xr:uid="{E138BEB4-DE7E-4C46-863A-7131A7334D11}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.lately.ai/" xr:uid="{CFDE2285-E73B-4F25-863F-BE9B0C37F8BF}"/>
-    <hyperlink ref="D8" r:id="rId5" display="https://www.copy.ai/" xr:uid="{E3EBD5C6-B988-4D8F-B9E2-27ECB6575195}"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://www.jasper.ai/" xr:uid="{7DD1334B-69B8-4D1B-B888-7D48BC9AD761}"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://pictory.ai/" xr:uid="{F5FA3025-5F34-4027-BE91-FF8F4B2526CF}"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://www.synthesia.io/" xr:uid="{0FDC1702-C862-46A6-AA87-FBD5B5727ABD}"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://publer.io/" xr:uid="{A6568E3F-AF67-4257-9403-75E5F37EE97B}"/>
-    <hyperlink ref="D13" r:id="rId10" display="https://feedhive.io/" xr:uid="{0DB07A60-1870-4895-918D-1CC7B90AB917}"/>
-    <hyperlink ref="D14" r:id="rId11" display="https://www.contentstudio.io/" xr:uid="{1435C586-FC6C-45AF-898B-AB414F1AC1B2}"/>
-    <hyperlink ref="D15" r:id="rId12" display="https://brand24.com/" xr:uid="{4EE59072-8217-49BC-BE02-9902243DC3DB}"/>
-    <hyperlink ref="D16" r:id="rId13" display="https://socialbee.io/" xr:uid="{DE979F06-D0A3-4421-91D6-3E6CE3594882}"/>
-    <hyperlink ref="D17" r:id="rId14" display="https://hootsuite.com/heyday" xr:uid="{35E13F18-AD82-4C7B-91F7-91DA1E9EFDF5}"/>
-    <hyperlink ref="D18" r:id="rId15" display="https://replai.io/" xr:uid="{FCCF90AB-070F-427F-AFA6-50978DD6DE02}"/>
-    <hyperlink ref="D7" r:id="rId16" display="https://www.flick.social/" xr:uid="{288B3C4F-F630-4EEE-AFB5-01098A6A061A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{DB98CBD7-039E-408C-B1A5-81DBEBB1CDF3}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{17E8A22E-98C8-464F-B9E1-3087F0128F2D}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E138BEB4-DE7E-4C46-863A-7131A7334D11}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{CFDE2285-E73B-4F25-863F-BE9B0C37F8BF}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{E3EBD5C6-B988-4D8F-B9E2-27ECB6575195}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{7DD1334B-69B8-4D1B-B888-7D48BC9AD761}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{F5FA3025-5F34-4027-BE91-FF8F4B2526CF}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{0FDC1702-C862-46A6-AA87-FBD5B5727ABD}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{A6568E3F-AF67-4257-9403-75E5F37EE97B}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{0DB07A60-1870-4895-918D-1CC7B90AB917}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{1435C586-FC6C-45AF-898B-AB414F1AC1B2}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{4EE59072-8217-49BC-BE02-9902243DC3DB}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{DE979F06-D0A3-4421-91D6-3E6CE3594882}"/>
+    <hyperlink ref="D17" r:id="rId14" xr:uid="{35E13F18-AD82-4C7B-91F7-91DA1E9EFDF5}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{FCCF90AB-070F-427F-AFA6-50978DD6DE02}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{288B3C4F-F630-4EEE-AFB5-01098A6A061A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
